--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Rankings/estadisticos_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Rankings/estadisticos_No_Lineal_Estacionario_SETAR.xlsx
@@ -55,19 +55,19 @@
     <t>LSPM</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
+    <t>AREPD</t>
+  </si>
+  <si>
+    <t>EnCQR-LSTM</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
   </si>
   <si>
-    <t>AREPD</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
-  </si>
-  <si>
     <t>MCPS</t>
-  </si>
-  <si>
-    <t>EnCQR-LSTM</t>
   </si>
 </sst>
 </file>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.6167276231584793</v>
+        <v>0.6091631725583236</v>
       </c>
       <c r="C2">
-        <v>0.5451924148238272</v>
+        <v>0.534497895221004</v>
       </c>
       <c r="D2">
-        <v>0.3489194113342619</v>
+        <v>0.3491650009044597</v>
       </c>
       <c r="E2">
-        <v>0.5657593372376005</v>
+        <v>0.5731879677460793</v>
       </c>
       <c r="F2">
-        <v>0.2319615153057061</v>
+        <v>0.2193037581411256</v>
       </c>
       <c r="G2">
-        <v>2.966623172811131</v>
+        <v>2.939210279537062</v>
       </c>
       <c r="H2">
-        <v>0.3636732101501335</v>
+        <v>0.3691461034709824</v>
       </c>
       <c r="I2">
-        <v>0.9225558642649301</v>
+        <v>0.9076541997113954</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.6387781983476837</v>
+        <v>0.610506181469891</v>
       </c>
       <c r="C3">
-        <v>0.557692166574064</v>
+        <v>0.5362143128175884</v>
       </c>
       <c r="D3">
-        <v>0.352705002288456</v>
+        <v>0.3573417331254694</v>
       </c>
       <c r="E3">
-        <v>0.5521556671796123</v>
+        <v>0.5853204176657347</v>
       </c>
       <c r="F3">
-        <v>0.2247637262708101</v>
+        <v>0.208828801167889</v>
       </c>
       <c r="G3">
-        <v>2.188156231448168</v>
+        <v>4.071700465624107</v>
       </c>
       <c r="H3">
-        <v>0.3806457209390033</v>
+        <v>0.3585156706814905</v>
       </c>
       <c r="I3">
-        <v>0.9288135330984965</v>
+        <v>0.8939136108308198</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>0.6645563381915951</v>
+        <v>0.6328948958871112</v>
       </c>
       <c r="C4">
-        <v>0.5674196498963664</v>
+        <v>0.541490053914737</v>
       </c>
       <c r="D4">
-        <v>0.3798273665502149</v>
+        <v>0.3765237190765837</v>
       </c>
       <c r="E4">
-        <v>0.5715502880971826</v>
+        <v>0.5949229825101067</v>
       </c>
       <c r="F4">
-        <v>0.2258281311278885</v>
+        <v>0.211560669873789</v>
       </c>
       <c r="G4">
-        <v>2.658343703908126</v>
+        <v>3.358090799955192</v>
       </c>
       <c r="H4">
-        <v>0.3925463955715204</v>
+        <v>0.3755731956242811</v>
       </c>
       <c r="I4">
-        <v>0.9557418774873979</v>
+        <v>0.9031655474534984</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>0.6927551021447618</v>
+        <v>0.6597272638875294</v>
       </c>
       <c r="C5">
-        <v>0.5693707931611598</v>
+        <v>0.5575169306955219</v>
       </c>
       <c r="D5">
-        <v>0.4324550123380396</v>
+        <v>0.432733688017793</v>
       </c>
       <c r="E5">
-        <v>0.6242538106167157</v>
+        <v>0.6559281565352522</v>
       </c>
       <c r="F5">
-        <v>0.2233126810879258</v>
+        <v>0.2097177891653769</v>
       </c>
       <c r="G5">
-        <v>3.302421435250747</v>
+        <v>6.086505544320333</v>
       </c>
       <c r="H5">
-        <v>0.387459152643557</v>
+        <v>0.3830966210042087</v>
       </c>
       <c r="I5">
-        <v>0.9563676156597606</v>
+        <v>0.9402147237953902</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.7046074874561903</v>
+        <v>0.6689745337779672</v>
       </c>
       <c r="C6">
-        <v>0.5886306653305792</v>
+        <v>0.558822203163907</v>
       </c>
       <c r="D6">
-        <v>0.3935043298915109</v>
+        <v>0.443479678325648</v>
       </c>
       <c r="E6">
-        <v>0.5584731029642619</v>
+        <v>0.6629246046499566</v>
       </c>
       <c r="F6">
-        <v>0.2236136918375075</v>
+        <v>0.2097119174583079</v>
       </c>
       <c r="G6">
-        <v>3.232493440823941</v>
+        <v>6.019240199066391</v>
       </c>
       <c r="H6">
-        <v>0.4124707427539848</v>
+        <v>0.3823939063038184</v>
       </c>
       <c r="I6">
-        <v>1.014910862650306</v>
+        <v>0.9498040406306391</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.7113671716621648</v>
+        <v>0.6714338599525211</v>
       </c>
       <c r="C7">
-        <v>0.593435995743817</v>
+        <v>0.5614994828472084</v>
       </c>
       <c r="D7">
-        <v>0.4314824578085431</v>
+        <v>0.4285153136438407</v>
       </c>
       <c r="E7">
-        <v>0.6065537952789566</v>
+        <v>0.6382092700450677</v>
       </c>
       <c r="F7">
-        <v>0.2291508530071699</v>
+        <v>0.2219560499739018</v>
       </c>
       <c r="G7">
-        <v>3.514322851090406</v>
+        <v>4.081516389153862</v>
       </c>
       <c r="H7">
-        <v>0.4010701640402703</v>
+        <v>0.3860383087758322</v>
       </c>
       <c r="I7">
-        <v>0.990445378820198</v>
+        <v>0.9452569949346727</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.7166134370967593</v>
+        <v>0.6792272693479734</v>
       </c>
       <c r="C8">
-        <v>0.5894677369137887</v>
+        <v>0.5715689349971318</v>
       </c>
       <c r="D8">
-        <v>0.4329046481258619</v>
+        <v>0.4282780953755907</v>
       </c>
       <c r="E8">
-        <v>0.6040978660401672</v>
+        <v>0.6305372512306783</v>
       </c>
       <c r="F8">
-        <v>0.2309175454760594</v>
+        <v>0.216812989235065</v>
       </c>
       <c r="G8">
-        <v>3.530228251819225</v>
+        <v>3.775566079757783</v>
       </c>
       <c r="H8">
-        <v>0.3990716322550511</v>
+        <v>0.3866507450687353</v>
       </c>
       <c r="I8">
-        <v>0.9900841239823704</v>
+        <v>0.9333258126874839</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>0.7258043778608845</v>
+        <v>0.6891776358088657</v>
       </c>
       <c r="C9">
-        <v>0.5974817756655202</v>
+        <v>0.5850926494972328</v>
       </c>
       <c r="D9">
-        <v>0.4463492578008827</v>
+        <v>0.4243040996708603</v>
       </c>
       <c r="E9">
-        <v>0.6149718456044293</v>
+        <v>0.6156672498126963</v>
       </c>
       <c r="F9">
-        <v>0.2219302088681597</v>
+        <v>0.2198923349277033</v>
       </c>
       <c r="G9">
-        <v>3.654015252087471</v>
+        <v>7.205603299334292</v>
       </c>
       <c r="H9">
-        <v>0.4135315270348838</v>
+        <v>0.4085280392444517</v>
       </c>
       <c r="I9">
-        <v>1.036238385692962</v>
+        <v>0.9831108875885657</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.888373636049735</v>
+        <v>0.7047307197580646</v>
       </c>
       <c r="C10">
-        <v>0.7525962950280585</v>
+        <v>0.5962354490030903</v>
       </c>
       <c r="D10">
-        <v>0.4574795138864678</v>
+        <v>0.4119250109098131</v>
       </c>
       <c r="E10">
-        <v>0.5149629562632092</v>
+        <v>0.5845140553135356</v>
       </c>
       <c r="F10">
-        <v>0.2839391131968524</v>
+        <v>0.2283608291549094</v>
       </c>
       <c r="G10">
-        <v>2.465672838607194</v>
+        <v>3.793457918663191</v>
       </c>
       <c r="H10">
-        <v>0.5135866687179045</v>
+        <v>0.4137467862889215</v>
       </c>
       <c r="I10">
-        <v>1.341400625628271</v>
+        <v>0.996545890381579</v>
       </c>
     </row>
   </sheetData>
